--- a/biology/Médecine/Héparinémie/Héparinémie.xlsx
+++ b/biology/Médecine/Héparinémie/Héparinémie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9parin%C3%A9mie</t>
+          <t>Héparinémie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’héparinémie est la mesure de la concentration d'héparine dans le sang. Une héparinémie trop élevée signe un risque hémorragique (saignements).
 Sa mesure est rare en pratique courante. Elle est utile lorsqu'un patient est traité par héparine non fractionnée à forte dose ou lorsque le patient présente une affection pouvant faire varier l'efficacité du traitement pour une même dose (insuffisance rénale obésité...). 
